--- a/data/n2v/tables/model-1200-1325-20230828-56.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-56.xlsx
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
